--- a/biology/Zoologie/Échiquier_ibérique/Échiquier_ibérique.xlsx
+++ b/biology/Zoologie/Échiquier_ibérique/Échiquier_ibérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_ib%C3%A9rique</t>
+          <t>Échiquier_ibérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia lachesis
 L'Échiquier ibérique ou Échiquier d'Ibérie (Melanargia lachesis) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_ib%C3%A9rique</t>
+          <t>Échiquier_ibérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia lachesis a été nommé par Jakob Hübner en 1790.
-Synonymes : Papilio lachesis Hübner, 1790 ; Lachesis ruscinonensis Oberthür &amp; Houlbert, 1922 ; Melanargia galathea lachesis[1].
-Noms vernaculaires
-L'Échiquier ibérique se nomme Iberian Marbled White en anglais et Medioluto ibérica en espagnol.
-Formes
-Melanargia lachesis f. cataleuca Staudinger[2].
-Espèce proche
-Le Demi-deuil (Melanargia galathea), se distingue par ses dessins noirs au recto plus étendus[3].
+Synonymes : Papilio lachesis Hübner, 1790 ; Lachesis ruscinonensis Oberthür &amp; Houlbert, 1922 ; Melanargia galathea lachesis.
 </t>
         </is>
       </c>
@@ -532,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_ib%C3%A9rique</t>
+          <t>Échiquier_ibérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +555,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier ibérique se nomme Iberian Marbled White en anglais et Medioluto ibérica en espagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanargia lachesis f. cataleuca Staudinger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Demi-deuil (Melanargia galathea), se distingue par ses dessins noirs au recto plus étendus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon blanc de taille moyenne qui présente un damier noir des aires distales.
 Le revers dessine des limites en noir et possède une ligne d'ocelles aux postérieures. Melanargia lachesis f cataleuca présente un verso des postérieures entièrement blanc.
@@ -558,75 +679,219 @@
 			Melanargia lachesis ♂   △ MHNT
 			Melanargia lachesis  ♀  MHNT
 			Melanargia lachesis ♀   △ MHNT
-Période de vol et hivernation
-La période de vol s'étend de juin à août en une seule génération[2].
-Plantes hôtes
-La chenille se nourrit de poacées (graminées).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_ib%C3%A9rique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de vol s'étend de juin à août en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de poacées (graminées).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Échiquier ibérique est présent au Portugal, en Espagne et dans le Sud de la France[1],[2].
-En France, il n'est présent que dans quelques départements du pourtour méditerranéen : Bouches-du-Rhône, Vaucluse, Gard, Hérault, Aude, Pyrénées-Orientales et Tarn-et-Garonne[4]. Son aire de répartition est complémentaire de celle de l'espèce voisine Melanargia galathea.
-Biotope
-Il réside dans les friches.
-Protection
-Il ne bénéficie pas de statut de protection spécifique.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_ib%C3%A9rique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier ibérique est présent au Portugal, en Espagne et dans le Sud de la France,.
+En France, il n'est présent que dans quelques départements du pourtour méditerranéen : Bouches-du-Rhône, Vaucluse, Gard, Hérault, Aude, Pyrénées-Orientales et Tarn-et-Garonne. Son aire de répartition est complémentaire de celle de l'espèce voisine Melanargia galathea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les friches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne bénéficie pas de statut de protection spécifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Échiquier_ibérique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_ib%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Espèces ressemblantes en Europe occidentale et au Maghreb</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Melanargia arge - Échiquier d'Italie en Italie
 Melanargia galathea - Demi-deuil
